--- a/balio/BoM fm row.xlsx
+++ b/balio/BoM fm row.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tom\Documents\Electronics\amtx\Audio\amproc\balio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF8FEB7-2093-4137-A3B9-3E26C2425360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85826AC-730C-4E7A-9018-96ED90D38F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="7275" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -796,7 +796,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -807,7 +807,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1166,7 +1167,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1243,13 +1246,13 @@
       <c r="H2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="6">
         <v>0.13500000000000001</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="6">
         <f>B2*J2</f>
         <v>0.81</v>
       </c>
@@ -1279,13 +1282,13 @@
       <c r="H3" t="s">
         <v>29</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="6">
         <v>8.2299999999999998E-2</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="6">
         <f t="shared" ref="K3:K16" si="0">B3*J3</f>
         <v>0.32919999999999999</v>
       </c>
@@ -1315,13 +1318,13 @@
       <c r="H4" t="s">
         <v>29</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="6">
         <v>0.13500000000000001</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="6">
         <f t="shared" si="0"/>
         <v>0.27</v>
       </c>
@@ -1351,13 +1354,13 @@
       <c r="H5" t="s">
         <v>29</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="5">
         <v>2068981</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="6">
         <v>8.0500000000000002E-2</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="6">
         <f>B5*J5</f>
         <v>0.161</v>
       </c>
@@ -1385,13 +1388,13 @@
       <c r="H6" t="s">
         <v>29</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="6">
         <v>0.93899999999999995</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="6">
         <f t="shared" si="0"/>
         <v>1.8779999999999999</v>
       </c>
@@ -1419,13 +1422,13 @@
       <c r="H7" t="s">
         <v>29</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="6">
         <v>1.18</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="6">
         <f t="shared" si="0"/>
         <v>7.08</v>
       </c>
@@ -1453,13 +1456,13 @@
       <c r="H8" t="s">
         <v>62</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="6">
         <v>0.59</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="6">
         <f t="shared" si="0"/>
         <v>2.36</v>
       </c>
@@ -1487,13 +1490,13 @@
       <c r="H9" t="s">
         <v>29</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="6">
         <v>0.879</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="6">
         <f t="shared" si="0"/>
         <v>3.516</v>
       </c>
@@ -1523,13 +1526,13 @@
       <c r="H10" t="s">
         <v>29</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="5">
         <v>1516277</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="6">
         <v>9.2499999999999999E-2</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="6">
         <f t="shared" si="0"/>
         <v>0.185</v>
       </c>
@@ -1559,13 +1562,13 @@
       <c r="H11" t="s">
         <v>29</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="6">
         <v>2.8299999999999999E-2</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="6">
         <f t="shared" si="0"/>
         <v>0.33960000000000001</v>
       </c>
@@ -1595,13 +1598,13 @@
       <c r="H12" t="s">
         <v>29</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="6">
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="6">
         <f t="shared" si="0"/>
         <v>0.4032</v>
       </c>
@@ -1631,13 +1634,13 @@
       <c r="H13" t="s">
         <v>29</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="6">
         <v>3.0700000000000002E-2</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="6">
         <f t="shared" si="0"/>
         <v>6.1400000000000003E-2</v>
       </c>
@@ -1667,13 +1670,13 @@
       <c r="H14" t="s">
         <v>29</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="6">
         <v>2.8199999999999999E-2</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="6">
         <f t="shared" si="0"/>
         <v>5.6399999999999999E-2</v>
       </c>
@@ -1703,13 +1706,13 @@
       <c r="H15" t="s">
         <v>29</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="6">
         <v>2.9</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="6">
         <f t="shared" si="0"/>
         <v>5.8</v>
       </c>
@@ -1739,13 +1742,13 @@
       <c r="H16" t="s">
         <v>29</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="6">
         <v>0.90500000000000003</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="6">
         <f t="shared" si="0"/>
         <v>1.81</v>
       </c>
@@ -1754,7 +1757,7 @@
       <c r="J18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="7">
         <f>SUM(K2:K16)</f>
         <v>25.059799999999999</v>
       </c>
